--- a/Кравец/test.xlsx
+++ b/Кравец/test.xlsx
@@ -688,6 +688,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -696,9 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,7 +1855,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -1902,17 +1902,17 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="96" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -2024,7 +2024,7 @@
       <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="13" t="s">
@@ -2058,13 +2058,13 @@
       <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="H8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="I8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
